--- a/trend_results/Rivers/MakuriatTuscanHills_69196251da.xlsx
+++ b/trend_results/Rivers/MakuriatTuscanHills_69196251da.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:W49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.652780099682205</v>
+        <v>0.347219900317795</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.978258419480827</v>
+        <v>0.021741580519173</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -2025,7 +2025,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.256057333225326</v>
+        <v>0.743942666774674</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.782237945900598</v>
+        <v>0.217762054099402</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -3098,14 +3098,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3113,31 +3113,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.5</v>
+        <v>0.008012634045357001</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0.615384615384615</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.411</v>
+        <v>67.5</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.0037433366636963</v>
+        <v>2.49260691537762</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.0546504762579461</v>
+        <v>0.732251042541508</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0172449606135835</v>
+        <v>4.99287619044948</v>
       </c>
       <c r="N30" t="n">
-        <v>-0.910787509415159</v>
+        <v>3.69275098574462</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3175,7 +3175,11 @@
           <t>Mana_7d</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/m2</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3185,14 +3189,14 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -3200,31 +3204,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.5</v>
+        <v>0.257182520273319</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.062111801242236</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0.521739130434783</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J31" t="n">
-        <v>107</v>
+        <v>1.2</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0297497372569627</v>
+        <v>-0.0166173794358508</v>
       </c>
       <c r="L31" t="n">
-        <v>-9.139807490561459</v>
+        <v>-0.0451806567561884</v>
       </c>
       <c r="M31" t="n">
-        <v>7.23825872087748</v>
+        <v>0.0199042478145207</v>
       </c>
       <c r="N31" t="n">
-        <v>0.0278034927635166</v>
+        <v>-1.38478161965423</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3233,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3262,7 +3266,11 @@
           <t>Mana_7d</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr"/>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3272,14 +3280,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3287,31 +3295,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.59675202974633</v>
+        <v>0.007640610516876</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0.764705882352941</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>4.49</v>
+        <v>10.96</v>
       </c>
       <c r="K32" t="n">
-        <v>0.101692678392099</v>
+        <v>-0.0400732454446517</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.303085318089481</v>
+        <v>-0.0699454611596499</v>
       </c>
       <c r="M32" t="n">
-        <v>0.631910993741831</v>
+        <v>-0.0119897615537793</v>
       </c>
       <c r="N32" t="n">
-        <v>2.26487034280843</v>
+        <v>-0.365631801502296</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3320,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3349,7 +3357,11 @@
           <t>Mana_7d</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr"/>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3359,14 +3371,14 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -3374,31 +3386,31 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.003645179045768</v>
+        <v>0.0004413809119567</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.161849710982659</v>
       </c>
       <c r="H33" t="n">
+        <v>0.115606936416185</v>
+      </c>
+      <c r="I33" t="n">
         <v>1</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
       <c r="J33" t="n">
-        <v>0.4505</v>
+        <v>0.01</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.0200466520307355</v>
+        <v>0.0002496582365003</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0242468958402921</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.0123197334532258</v>
+        <v>0.0003825226494567</v>
       </c>
       <c r="N33" t="n">
-        <v>-4.44986726542408</v>
+        <v>2.49658236500342</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3436,7 +3448,11 @@
           <t>Mana_7d</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3446,11 +3462,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -3461,31 +3477,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.141565435331173</v>
+        <v>0.0198883838836503</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0.6705202312138731</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>108.5</v>
+        <v>189</v>
       </c>
       <c r="K34" t="n">
-        <v>-1.11177559414991</v>
+        <v>6.51328774238227</v>
       </c>
       <c r="L34" t="n">
-        <v>-3.11695840978037</v>
+        <v>1.08148926984841</v>
       </c>
       <c r="M34" t="n">
-        <v>0.779815256516984</v>
+        <v>12.3222358549675</v>
       </c>
       <c r="N34" t="n">
-        <v>-1.02467796695844</v>
+        <v>3.44618399067845</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3494,7 +3510,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3523,7 +3539,11 @@
           <t>Mana_7d</t>
         </is>
       </c>
-      <c r="W34" t="inlineStr"/>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3533,46 +3553,46 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.105248850027669</v>
+        <v>0.751020898299658</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.568862275449102</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0.5508982035928141</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="J35" t="n">
-        <v>4.515</v>
+        <v>0.0109836684725255</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.142326687811509</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.398443430395027</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0.023464563944793</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>-3.15230759272445</v>
+        <v>0</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3581,7 +3601,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3610,7 +3630,1253 @@
           <t>Mana_7d</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Makuri at Tuscan Hills</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.09132298523762281</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.287581699346405</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.117647058823529</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.0001307475820546</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1848331</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5510064</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Mana_7d</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Makuri at Tuscan Hills</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.464586658973566</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.826923076923077</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.8754999999999999</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.0002239080459769</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.0046424496604463</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.0048252328319768</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.025574876753512</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1848331</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5510064</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Mana_7d</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Makuri at Tuscan Hills</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.405901954377769</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.5089820359281439</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-0.0008843825665859</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-0.0094686427051121</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0066469517743403</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.0105660999592107</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>As likely as not increasing</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1848331</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5510064</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Mana_7d</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Makuri at Tuscan Hills</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.491096944891783</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.774566473988439</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.888</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.0035882450292661</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.0039938215104689</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1848331</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5510064</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Mana_7d</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Makuri at Tuscan Hills</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>15</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.957839814245835</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.497109826589595</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-0.0032455570745044</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.0066318088386433</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.318191870049456</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>1848331</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5510064</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Mana_7d</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Makuri at Tuscan Hills</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>15</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.0211115936077468</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.0057803468208092</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.364161849710983</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.0003998357963875</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.0007783756439309</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1.81743543812509</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>1848331</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5510064</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Mana_7d</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Makuri at Tuscan Hills</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>15</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.190548412406063</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.92485549132948</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.0388157665505226</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-0.0239865359510086</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.122822529751531</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1.24409508174752</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>1848331</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5510064</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Mana_7d</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Makuri at Tuscan Hills</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>5</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-0.0037433366636963</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.0546504762579461</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.0172449606135835</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.910787509415159</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1848331</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5510064</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Mana_7d</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Makuri at Tuscan Hills</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>5</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>107</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.0297497372569627</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-9.139807490561459</v>
+      </c>
+      <c r="M44" t="n">
+        <v>7.23825872087748</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.0278034927635166</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1848331</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5510064</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Mana_7d</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Makuri at Tuscan Hills</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>5</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.59675202974633</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.101692678392099</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.303085318089481</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.631910993741831</v>
+      </c>
+      <c r="N45" t="n">
+        <v>2.26487034280843</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>1848331</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5510064</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Mana_7d</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Makuri at Tuscan Hills</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>10</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.003645179045768</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.4505</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-0.0200466520307355</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-0.0242468958402921</v>
+      </c>
+      <c r="M46" t="n">
+        <v>-0.0123197334532258</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-4.44986726542408</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>1848331</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5510064</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Mana_7d</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Makuri at Tuscan Hills</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>10</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0.141565435331173</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>108.5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-1.11177559414991</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-3.11695840978037</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.779815256516984</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-1.02467796695844</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>1848331</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5510064</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Mana_7d</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Makuri at Tuscan Hills</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>10</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0.105248850027669</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>4.515</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-0.142326687811509</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.398443430395027</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.023464563944793</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-3.15230759272445</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>1848331</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5510064</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Mana_7d</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Makuri at Tuscan Hills</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>15</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0.29146943500005</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.857142857142857</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>108.5</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-0.467086992316136</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-1.32603978698597</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.546435673063606</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.430494923793673</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>1848331</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5510064</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Mana_7d</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/MakuriatTuscanHills_69196251da.xlsx
+++ b/trend_results/Rivers/MakuriatTuscanHills_69196251da.xlsx
@@ -569,35 +569,35 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.0469291696998273</v>
+        <v>0.494082867796877</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.756756756756757</v>
+        <v>0.852941176470588</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>90</v>
+        <v>92.5</v>
       </c>
       <c r="K2" t="n">
-        <v>11.7328501203852</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>-14.0910058240547</v>
       </c>
       <c r="M2" t="n">
-        <v>24.2680935400179</v>
+        <v>15.8239652470701</v>
       </c>
       <c r="N2" t="n">
-        <v>13.0365001337614</v>
+        <v>0</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -656,39 +656,39 @@
         <v>5</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.348811033783428</v>
+        <v>0.0317157126443059</v>
       </c>
       <c r="G3" t="n">
-        <v>0.148148148148148</v>
+        <v>0.16</v>
       </c>
       <c r="H3" t="n">
-        <v>0.611111111111111</v>
+        <v>0.68</v>
       </c>
       <c r="I3" t="n">
         <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0.15051510989011</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.179359479985683</v>
+        <v>-0.389430365849601</v>
       </c>
       <c r="M3" t="n">
-        <v>0.246328338546661</v>
+        <v>-0.0250405880799493</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-12.0412087912088</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.347219900317795</v>
+        <v>0.531311648813384</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.836363636363636</v>
+        <v>0.8</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.96</v>
+        <v>11.06</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.0299589883800413</v>
+        <v>0.0049931647300067</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.103275052837849</v>
+        <v>-0.059567861264203</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0501614083134348</v>
+        <v>0.0715732776995615</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.273348434124464</v>
+        <v>0.0451461548825202</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -842,11 +842,11 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.5</v>
+        <v>0.0504714386201194</v>
       </c>
       <c r="G5" t="n">
         <v>0.145454545454545</v>
@@ -861,16 +861,16 @@
         <v>0.011</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.000664695177434</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.0010018101844696</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.000664695177434</v>
+        <v>0.001201110092843</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>6.04268343121846</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -937,31 +937,31 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.141145594387493</v>
+        <v>0.350157879828744</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.763636363636364</v>
+        <v>0.8545454545454541</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="K6" t="n">
-        <v>24.8469387755102</v>
+        <v>6.84309133489461</v>
       </c>
       <c r="L6" t="n">
-        <v>-13.1656496265262</v>
+        <v>-22.8519570776401</v>
       </c>
       <c r="M6" t="n">
-        <v>69.6221967875757</v>
+        <v>45.1259386218765</v>
       </c>
       <c r="N6" t="n">
-        <v>10.3528911564626</v>
+        <v>3.11049606131573</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1024,32 +1024,32 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.363636134656254</v>
+        <v>0.404521041191137</v>
       </c>
       <c r="G7" t="n">
-        <v>0.528301886792453</v>
+        <v>0.5</v>
       </c>
       <c r="H7" t="n">
-        <v>0.69811320754717</v>
+        <v>0.611111111111111</v>
       </c>
       <c r="I7" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J7" t="n">
-        <v>0.011797851107708</v>
+        <v>0.0118221766699944</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0009578588305024</v>
+        <v>-0.0005168117096023</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0004676179427191</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.508816418902466</v>
+        <v>0.999956042364156</v>
       </c>
       <c r="G8" t="n">
-        <v>0.145454545454545</v>
+        <v>0.2</v>
       </c>
       <c r="H8" t="n">
         <v>0.145454545454545</v>
@@ -1134,16 +1134,16 @@
         <v>0.004</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>-0.0007180537352555</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0002790297937356</v>
+        <v>-0.0009986329460013</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0002594665995364</v>
+        <v>-0.0003895458902363</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>-17.9513433813893</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1210,31 +1210,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.5375969374816</v>
+        <v>0.180148717141063</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.945454545454545</v>
+        <v>0.927272727272727</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.883</v>
+        <v>0.918</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0016305803571428</v>
+        <v>0.0124605543710021</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0229506497754302</v>
+        <v>-0.0151946272896649</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0176488770351858</v>
+        <v>0.0358867399184215</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.184663687105647</v>
+        <v>1.35735886394359</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1301,31 +1301,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.021741580519173</v>
+        <v>0.015774755330517</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>8.31</v>
+        <v>8.32</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0596326530612248</v>
+        <v>-0.0465442655935613</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0961379980960064</v>
+        <v>-0.076238079784476</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.0134211373828187</v>
+        <v>-0.0141894545975324</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.717601119870335</v>
+        <v>-0.55942626915338</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1384,35 +1384,35 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.517375297727689</v>
+        <v>0.20187092466769</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.872727272727273</v>
+        <v>0.9090909090909089</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.899</v>
+        <v>0.93</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>0.0144075159914712</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.0217410714285714</v>
+        <v>-0.0157546810668403</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0226096011807163</v>
+        <v>0.0364545528231652</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1.54919526790013</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.175944458289002</v>
+        <v>0.0599644452620185</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0545454545454545</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.545454545454545</v>
+        <v>0.6181818181818181</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>8</v>
+        <v>1.04</v>
       </c>
       <c r="K12" t="n">
-        <v>0.855386416861827</v>
+        <v>0.017201726844584</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.674029129218911</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>2.62248439278076</v>
+        <v>0.0398665787523754</v>
       </c>
       <c r="N12" t="n">
-        <v>10.6923302107728</v>
+        <v>1.65401219659462</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1555,14 +1555,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.8790719025543819</v>
+        <v>0.0392436921744951</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6</v>
+        <v>0.654545454545455</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.02</v>
+        <v>0.025</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.0125731497418245</v>
+        <v>0.0019690026954177</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0313191196144021</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0053111086444588</v>
+        <v>0.0039749925744286</v>
       </c>
       <c r="N13" t="n">
-        <v>-1.23266173939455</v>
+        <v>7.87601078167116</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.287177277331182</v>
+        <v>0.265457993494366</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.636363636363636</v>
+        <v>0.981818181818182</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.027</v>
+        <v>3.29</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0004969387755102</v>
+        <v>0.228591836734694</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.0016270212055843</v>
+        <v>-0.170586580112949</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0030007810753129</v>
+        <v>0.7708963695902979</v>
       </c>
       <c r="N14" t="n">
-        <v>1.84051398337112</v>
+        <v>6.94808014391167</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1737,11 +1737,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.216737091579754</v>
+        <v>0.564627715532329</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.963636363636364</v>
+        <v>0.702380952380952</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>4.32</v>
+        <v>85</v>
       </c>
       <c r="K15" t="n">
-        <v>0.228591836734694</v>
+        <v>-1.73405137227841</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.561927547287751</v>
+        <v>-6.80861611502624</v>
       </c>
       <c r="M15" t="n">
-        <v>0.931029422812961</v>
+        <v>3.35768947817519</v>
       </c>
       <c r="N15" t="n">
-        <v>5.29147770219199</v>
+        <v>-2.0400604379746</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1843,31 +1843,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.484629516803914</v>
+        <v>0.6609244946041321</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.087378640776699</v>
       </c>
       <c r="H16" t="n">
-        <v>0.681818181818182</v>
+        <v>0.621359223300971</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
-        <v>87.5</v>
+        <v>1.05</v>
       </c>
       <c r="K16" t="n">
-        <v>0.332347588717015</v>
+        <v>0.0174760765550239</v>
       </c>
       <c r="L16" t="n">
-        <v>-4.99788555616495</v>
+        <v>-0.048148835788985</v>
       </c>
       <c r="M16" t="n">
-        <v>2.49930334559044</v>
+        <v>0.0868276326812167</v>
       </c>
       <c r="N16" t="n">
-        <v>0.379825815676589</v>
+        <v>1.66438824333561</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.8523948717929</v>
+        <v>0.936943747769535</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.62962962962963</v>
+        <v>0.808695652173913</v>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.09</v>
+        <v>10.96</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0319868637110016</v>
+        <v>0.0308380214530689</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.0250858516483516</v>
+        <v>-0.0046765216497759</v>
       </c>
       <c r="M17" t="n">
-        <v>0.110437114384176</v>
+        <v>0.0640763824945666</v>
       </c>
       <c r="N17" t="n">
-        <v>2.93457465238547</v>
+        <v>0.281368808878365</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2021,35 +2021,35 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.743942666774674</v>
+        <v>0.107993347311056</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.121739130434783</v>
       </c>
       <c r="H18" t="n">
-        <v>0.808695652173913</v>
+        <v>0.173913043478261</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>10.94</v>
+        <v>0.011</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0199711495341074</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.0200686813186809</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0492937371581758</v>
+        <v>0.0003835131352557</v>
       </c>
       <c r="N18" t="n">
-        <v>0.182551641079592</v>
+        <v>0</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,14 +2101,14 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>10</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -2116,31 +2116,31 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.0102898345862943</v>
+        <v>0.0481219706840037</v>
       </c>
       <c r="G19" t="n">
-        <v>0.139130434782609</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.165217391304348</v>
+        <v>0.71304347826087</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.01</v>
+        <v>200</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0003080211225156</v>
+        <v>9.276190476190481</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0005750138476089</v>
+        <v>21.412777648062</v>
       </c>
       <c r="N19" t="n">
-        <v>3.08021122515685</v>
+        <v>4.63809523809524</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2207,31 +2207,31 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.009948631566206999</v>
+        <v>0.0782467780441556</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="H20" t="n">
-        <v>0.669565217391304</v>
+        <v>0.545454545454545</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="J20" t="n">
-        <v>200</v>
+        <v>0.0100323058900115</v>
       </c>
       <c r="K20" t="n">
-        <v>14.1590093323762</v>
+        <v>4.13994765524987e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>3.86545144418567</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>26.8318603980266</v>
+        <v>0.0007515986310981</v>
       </c>
       <c r="N20" t="n">
-        <v>7.07950466618808</v>
+        <v>0.412661625416719</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2294,35 +2294,35 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.100178777661898</v>
+        <v>0.999993279324079</v>
       </c>
       <c r="G21" t="n">
-        <v>0.663636363636364</v>
+        <v>0.173913043478261</v>
       </c>
       <c r="H21" t="n">
-        <v>0.527272727272727</v>
+        <v>0.147826086956522</v>
       </c>
       <c r="I21" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0.009722122483292701</v>
+        <v>0.004</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0002860243264374</v>
+        <v>-0.0003549562682215</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>-0.0004972230349388</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0008328228835663</v>
+        <v>-0.0002022156998791</v>
       </c>
       <c r="N21" t="n">
-        <v>2.9419946820145</v>
+        <v>-8.87390670553936</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2374,46 +2374,46 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.999925931260283</v>
+        <v>0.0434988667065683</v>
       </c>
       <c r="G22" t="n">
-        <v>0.121739130434783</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.156521739130435</v>
+        <v>0.869565217391304</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.005</v>
+        <v>0.881</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0003339437120387</v>
+        <v>0.0086552132701421</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0004995628395556</v>
+        <v>0.0002138982824996</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.0001996822139358</v>
+        <v>0.0174476870788684</v>
       </c>
       <c r="N22" t="n">
-        <v>-6.6788742407752</v>
+        <v>0.982430564147808</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2465,7 +2465,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2480,31 +2480,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.45285778844404</v>
+        <v>0.0091500621184209</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.895652173913044</v>
+        <v>0.5625</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.878</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0004459706959706</v>
+        <v>-0.016652338143738</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.007295923025933</v>
+        <v>-0.027921288845604</v>
       </c>
       <c r="M23" t="n">
-        <v>0.008563050915342801</v>
+        <v>-0.0053530109468273</v>
       </c>
       <c r="N23" t="n">
-        <v>0.0507939289260474</v>
+        <v>-0.19895266599448</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2542,11 +2542,7 @@
           <t>Mana_7d</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2556,7 +2552,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2571,31 +2567,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.217762054099402</v>
+        <v>0.0426153410950192</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.580357142857143</v>
+        <v>0.852173913043478</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>8.365</v>
+        <v>0.89</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.0059411691173749</v>
+        <v>0.009566071428571399</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.0196885708186528</v>
+        <v>0.0001910712440055</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0056689500087849</v>
+        <v>0.0180852576908171</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.0710241376852952</v>
+        <v>1.07483948635634</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2604,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2633,7 +2629,11 @@
           <t>Mana_7d</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2643,14 +2643,14 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>10</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.439478498037</v>
+        <v>0.263817511896413</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.808695652173913</v>
+        <v>0.521739130434783</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.888</v>
+        <v>1.02</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0005360812133072</v>
+        <v>0.0016439254786418</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0067080231977232</v>
+        <v>-0.0031371620985195</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0093605335116447</v>
+        <v>0.0099913655588444</v>
       </c>
       <c r="N25" t="n">
-        <v>0.0603695060030677</v>
+        <v>0.16116916457273</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -2749,31 +2749,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.0175332104595751</v>
+        <v>0.0441384508990468</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0434782608695652</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.347826086956522</v>
+        <v>0.443478260869565</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>6</v>
+        <v>0.023</v>
       </c>
       <c r="K26" t="n">
-        <v>0.334478021978022</v>
+        <v>0.0006668188041989</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.7513398199974231</v>
+        <v>0.0015051510989011</v>
       </c>
       <c r="N26" t="n">
-        <v>5.5746336996337</v>
+        <v>2.89921219216955</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2825,7 +2825,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -2840,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.9527189181343541</v>
+        <v>0.09952520765366681</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.573913043478261</v>
+        <v>0.9304347826086961</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.01</v>
+        <v>3.38</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.0051175137362637</v>
+        <v>0.0970858720619968</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.0120427930911647</v>
+        <v>-0.0163637385180724</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>0.267045219898528</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.506684528342945</v>
+        <v>2.8723630787573</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2916,11 +2916,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
@@ -2931,31 +2931,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.0415739891300498</v>
+        <v>0.0448983552614924</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.434782608695652</v>
+        <v>0.610294117647059</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.023</v>
+        <v>67.5</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0005035509733683</v>
+        <v>1.665273556231</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0013965499417851</v>
+        <v>4.19314673410633</v>
       </c>
       <c r="N28" t="n">
-        <v>2.18935205812314</v>
+        <v>2.46707193515704</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -3007,11 +3007,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -3022,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.120004799494536</v>
+        <v>0.452910886940306</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="H29" t="n">
-        <v>0.9304347826086961</v>
+        <v>0.54375</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J29" t="n">
-        <v>3.44</v>
+        <v>1.12</v>
       </c>
       <c r="K29" t="n">
-        <v>0.07363623018203171</v>
+        <v>-0.0011101823708206</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.021438423929185</v>
+        <v>-0.0300360409057686</v>
       </c>
       <c r="M29" t="n">
-        <v>0.223896067995384</v>
+        <v>0.0253679978675233</v>
       </c>
       <c r="N29" t="n">
-        <v>2.14058808668697</v>
+        <v>-0.09912342596613111</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3113,31 +3113,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.008012634045357001</v>
+        <v>0.427485792451708</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.615384615384615</v>
+        <v>0.75</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>67.5</v>
+        <v>10.91</v>
       </c>
       <c r="K30" t="n">
-        <v>2.49260691537762</v>
+        <v>-0.002851288056206</v>
       </c>
       <c r="L30" t="n">
-        <v>0.732251042541508</v>
+        <v>-0.0253617366965323</v>
       </c>
       <c r="M30" t="n">
-        <v>4.99287619044948</v>
+        <v>0.02194857269706</v>
       </c>
       <c r="N30" t="n">
-        <v>3.69275098574462</v>
+        <v>-0.0261346292961139</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3177,7 +3177,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3204,31 +3204,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.257182520273319</v>
+        <v>0.0009679345453464</v>
       </c>
       <c r="G31" t="n">
-        <v>0.062111801242236</v>
+        <v>0.144508670520231</v>
       </c>
       <c r="H31" t="n">
-        <v>0.521739130434783</v>
+        <v>0.115606936416185</v>
       </c>
       <c r="I31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>1.2</v>
+        <v>0.01</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.0166173794358508</v>
+        <v>0.0001991548527808</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.0451806567561884</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0199042478145207</v>
+        <v>0.0003334094020994</v>
       </c>
       <c r="N31" t="n">
-        <v>-1.38478161965423</v>
+        <v>1.99154852780807</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3280,14 +3280,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3295,31 +3295,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.007640610516876</v>
+        <v>0.0212560970393066</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.764705882352941</v>
+        <v>0.69364161849711</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>10.96</v>
+        <v>194</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.0400732454446517</v>
+        <v>6.00243849849502</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.0699454611596499</v>
+        <v>0.896968415094538</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.0119897615537793</v>
+        <v>11.9492911668484</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.365631801502296</v>
+        <v>3.09404046314176</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3371,46 +3371,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.0004413809119567</v>
+        <v>0.905008668270237</v>
       </c>
       <c r="G33" t="n">
-        <v>0.161849710982659</v>
+        <v>0.542168674698795</v>
       </c>
       <c r="H33" t="n">
-        <v>0.115606936416185</v>
+        <v>0.560240963855422</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="J33" t="n">
-        <v>0.01</v>
+        <v>0.0115178465537437</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0002496582365003</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>-0.0002445842422031</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0003825226494567</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>2.49658236500342</v>
+        <v>0</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3462,7 +3462,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3473,35 +3473,35 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.0198883838836503</v>
+        <v>0.5526595453973761</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="H34" t="n">
-        <v>0.6705202312138731</v>
+        <v>0.109090909090909</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>189</v>
+        <v>0.004</v>
       </c>
       <c r="K34" t="n">
-        <v>6.51328774238227</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>1.08148926984841</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>12.3222358549675</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>3.44618399067845</v>
+        <v>0</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3553,7 +3553,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3564,35 +3564,35 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.751020898299658</v>
+        <v>0.11965950168628</v>
       </c>
       <c r="G35" t="n">
-        <v>0.568862275449102</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.5508982035928141</v>
+        <v>0.818181818181818</v>
       </c>
       <c r="I35" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.0109836684725255</v>
+        <v>0.881</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>0.0032981540198429</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>-0.0014487856797654</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>0.008266337532998999</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>0.37436481496515</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3644,7 +3644,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3655,35 +3655,35 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.09132298523762281</v>
+        <v>0.014304158970458</v>
       </c>
       <c r="G36" t="n">
-        <v>0.287581699346405</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.117647058823529</v>
+        <v>0.475903614457831</v>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.004</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>-0.0094870129870129</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>-0.016733716862368</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0001307475820546</v>
+        <v>-0.0023398462524025</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>-0.113345435926081</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3721,11 +3721,7 @@
           <t>Mana_7d</t>
         </is>
       </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3735,7 +3731,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3750,31 +3746,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.464586658973566</v>
+        <v>0.117653711567478</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.826923076923077</v>
+        <v>0.8497109826589599</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.8754999999999999</v>
+        <v>0.894</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0002239080459769</v>
+        <v>0.0032820547309833</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0046424496604463</v>
+        <v>-0.0012192541751851</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0048252328319768</v>
+        <v>0.0078395943493562</v>
       </c>
       <c r="N37" t="n">
-        <v>0.025574876753512</v>
+        <v>0.367120215993658</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3783,7 +3779,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3814,7 +3810,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3826,14 +3822,14 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>15</v>
       </c>
       <c r="D38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -3841,31 +3837,31 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.405901954377769</v>
+        <v>0.732691823399817</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.5089820359281439</v>
+        <v>0.508670520231214</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>8.369999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.0008843825665859</v>
+        <v>-0.000907453416149</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.0094686427051121</v>
+        <v>-0.0049687152630648</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0066469517743403</v>
+        <v>0.0019986831562419</v>
       </c>
       <c r="N38" t="n">
-        <v>-0.0105660999592107</v>
+        <v>-0.088102273412531</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3874,7 +3870,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3903,7 +3899,11 @@
           <t>Mana_7d</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr"/>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3913,46 +3913,46 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C39" t="n">
         <v>15</v>
       </c>
       <c r="D39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.491096944891783</v>
+        <v>0.154757361802059</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.0057803468208092</v>
       </c>
       <c r="H39" t="n">
-        <v>0.774566473988439</v>
+        <v>0.38150289017341</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>0.888</v>
+        <v>0.022</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>0.0002141391440297</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.0035882450292661</v>
+        <v>-9.99070056007767e-05</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0039938215104689</v>
+        <v>0.0006536747710256</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>0.9733597455895679</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -4004,7 +4004,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -4019,31 +4019,31 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.957839814245835</v>
+        <v>0.392878697555738</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.497109826589595</v>
+        <v>0.9306358381502891</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1.02</v>
+        <v>3.2</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.0032455570745044</v>
+        <v>0.0118174464907914</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.0066318088386433</v>
+        <v>-0.0408078692437191</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>0.0913527286852021</v>
       </c>
       <c r="N40" t="n">
-        <v>-0.318191870049456</v>
+        <v>0.369295202837232</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q40" t="n">
@@ -4083,7 +4083,7 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -4095,46 +4095,46 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.59675202974633</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>1</v>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>0.0211115936077468</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.0057803468208092</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.364161849710983</v>
-      </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.022</v>
+        <v>0.42</v>
       </c>
       <c r="K41" t="n">
-        <v>0.0003998357963875</v>
+        <v>0.0144543620275403</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>-0.0546504762579461</v>
       </c>
       <c r="M41" t="n">
-        <v>0.0007783756439309</v>
+        <v>0.0409418209197975</v>
       </c>
       <c r="N41" t="n">
-        <v>1.81743543812509</v>
+        <v>3.44151476846198</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q41" t="n">
@@ -4172,11 +4172,7 @@
           <t>Mana_7d</t>
         </is>
       </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="W41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4186,46 +4182,46 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.59675202974633</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
         <v>1</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>0.190548412406063</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.92485549132948</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>3.12</v>
+        <v>110</v>
       </c>
       <c r="K42" t="n">
-        <v>0.0388157665505226</v>
+        <v>0.757995027672947</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.0239865359510086</v>
+        <v>-9.139807490561459</v>
       </c>
       <c r="M42" t="n">
-        <v>0.122822529751531</v>
+        <v>6.20034569292086</v>
       </c>
       <c r="N42" t="n">
-        <v>1.24409508174752</v>
+        <v>0.689086388793588</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4234,7 +4230,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q42" t="n">
@@ -4263,11 +4259,7 @@
           <t>Mana_7d</t>
         </is>
       </c>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>NTU/FNU</t>
-        </is>
-      </c>
+      <c r="W42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4277,7 +4269,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -4292,7 +4284,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.5</v>
+        <v>0.59675202974633</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -4304,19 +4296,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.411</v>
+        <v>4.54</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.0037433366636963</v>
+        <v>0.101692678392099</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.0546504762579461</v>
+        <v>-0.303085318089481</v>
       </c>
       <c r="M43" t="n">
-        <v>0.0172449606135835</v>
+        <v>0.711646458682974</v>
       </c>
       <c r="N43" t="n">
-        <v>-0.910787509415159</v>
+        <v>2.23992683683037</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4364,11 +4356,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
@@ -4379,7 +4371,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.5</v>
+        <v>0.07620314197837499</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4391,19 +4383,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>107</v>
+        <v>0.4505</v>
       </c>
       <c r="K44" t="n">
-        <v>0.0297497372569627</v>
+        <v>-0.0136053008595989</v>
       </c>
       <c r="L44" t="n">
-        <v>-9.139807490561459</v>
+        <v>-0.0212505926018626</v>
       </c>
       <c r="M44" t="n">
-        <v>7.23825872087748</v>
+        <v>0.0013641227083272</v>
       </c>
       <c r="N44" t="n">
-        <v>0.0278034927635166</v>
+        <v>-3.0200445859265</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4412,7 +4404,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q44" t="n">
@@ -4451,11 +4443,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
@@ -4466,7 +4458,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.59675202974633</v>
+        <v>0.429013828493761</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4478,19 +4470,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>4.49</v>
+        <v>108.5</v>
       </c>
       <c r="K45" t="n">
-        <v>0.101692678392099</v>
+        <v>-0.467086992316136</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.303085318089481</v>
+        <v>-2.36382555787134</v>
       </c>
       <c r="M45" t="n">
-        <v>0.631910993741831</v>
+        <v>1.63297408293561</v>
       </c>
       <c r="N45" t="n">
-        <v>2.26487034280843</v>
+        <v>-0.430494923793673</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4538,7 +4530,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -4553,7 +4545,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.003645179045768</v>
+        <v>0.570986171506239</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4565,19 +4557,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.4505</v>
+        <v>4.515</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.0200466520307355</v>
+        <v>0.0249829001367988</v>
       </c>
       <c r="L46" t="n">
-        <v>-0.0242468958402921</v>
+        <v>-0.146648965728035</v>
       </c>
       <c r="M46" t="n">
-        <v>-0.0123197334532258</v>
+        <v>0.179691758420334</v>
       </c>
       <c r="N46" t="n">
-        <v>-4.44986726542408</v>
+        <v>0.5533311215237831</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4586,7 +4578,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q46" t="n">
@@ -4625,11 +4617,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D47" t="b">
         <v>0</v>
@@ -4640,7 +4632,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.141565435331173</v>
+        <v>0.024372460369853</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -4652,19 +4644,19 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>108.5</v>
+        <v>0.463</v>
       </c>
       <c r="K47" t="n">
-        <v>-1.11177559414991</v>
+        <v>-0.0111604166666667</v>
       </c>
       <c r="L47" t="n">
-        <v>-3.11695840978037</v>
+        <v>-0.0200677896192897</v>
       </c>
       <c r="M47" t="n">
-        <v>0.779815256516984</v>
+        <v>-0.0028489950403074</v>
       </c>
       <c r="N47" t="n">
-        <v>-1.02467796695844</v>
+        <v>-2.41045716342693</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4673,7 +4665,7 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q47" t="n">
@@ -4712,11 +4704,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
@@ -4727,31 +4719,31 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.105248850027669</v>
+        <v>0.421352280269595</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>4.515</v>
+        <v>110</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.142326687811509</v>
+        <v>-0.162333333333333</v>
       </c>
       <c r="L48" t="n">
-        <v>-0.398443430395027</v>
+        <v>-1.00102026832746</v>
       </c>
       <c r="M48" t="n">
-        <v>0.023464563944793</v>
+        <v>0.605447923182699</v>
       </c>
       <c r="N48" t="n">
-        <v>-3.15230759272445</v>
+        <v>-0.147575757575758</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4760,7 +4752,7 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q48" t="n">
@@ -4799,7 +4791,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -4814,31 +4806,31 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.29146943500005</v>
+        <v>0.094443738769769</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.857142857142857</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>108.5</v>
+        <v>4.6995</v>
       </c>
       <c r="K49" t="n">
-        <v>-0.467086992316136</v>
+        <v>-0.0750389851485149</v>
       </c>
       <c r="L49" t="n">
-        <v>-1.32603978698597</v>
+        <v>-0.18562352489274</v>
       </c>
       <c r="M49" t="n">
-        <v>0.546435673063606</v>
+        <v>0.038151410257712</v>
       </c>
       <c r="N49" t="n">
-        <v>-0.430494923793673</v>
+        <v>-1.59674401848101</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4847,7 +4839,7 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q49" t="n">

--- a/trend_results/Rivers/MakuriatTuscanHills_69196251da.xlsx
+++ b/trend_results/Rivers/MakuriatTuscanHills_69196251da.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="68">
   <si>
     <t>site name</t>
   </si>
@@ -136,31 +136,46 @@
     <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>WARNING: Sen slope influenced by censored values</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope based on tied non-censored values</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>WARNING: Sen slope influenced by censored values</t>
-  </si>
-  <si>
     <t>RepSite</t>
   </si>
   <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
+    <t>Very likely increasing</t>
+  </si>
+  <si>
+    <t>Very unlikely improving</t>
+  </si>
+  <si>
+    <t>Extremely likely improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
     <t>As likely as not improving</t>
   </si>
   <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>As likely as not increasing</t>
-  </si>
-  <si>
-    <t>Very unlikely improving</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
+    <t>Extremely likely increasing</t>
   </si>
   <si>
     <t>Unlikely improving</t>
@@ -169,19 +184,10 @@
     <t>Extremely unlikely increasing</t>
   </si>
   <si>
-    <t>Very likely increasing</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely increasing</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
+    <t>Likely increasing</t>
   </si>
   <si>
     <t>Very likely improving</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
   </si>
   <si>
     <t>Tararua District</t>
@@ -663,31 +669,31 @@
         <v>40</v>
       </c>
       <c r="F2">
-        <v>0.494082867796877</v>
+        <v>0.7678643724586161</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.852941176470588</v>
+        <v>0.9</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>92.5</v>
+        <v>87.5</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>-7.03996598639456</v>
       </c>
       <c r="L2">
-        <v>-14.0910058240547</v>
+        <v>-21.5292843543553</v>
       </c>
       <c r="M2">
-        <v>15.8239652470701</v>
+        <v>11.2811886326949</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>-8.04567541302235</v>
       </c>
       <c r="O2" t="s">
         <v>43</v>
@@ -702,19 +708,19 @@
         <v>5510064</v>
       </c>
       <c r="S2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -728,37 +734,37 @@
         <v>5</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F3">
-        <v>0.0317157126443059</v>
+        <v>0.035672037786496</v>
       </c>
       <c r="G3">
-        <v>0.16</v>
+        <v>0.13953488372093</v>
       </c>
       <c r="H3">
-        <v>0.68</v>
+        <v>0.720930232558139</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="K3">
-        <v>-0.15051510989011</v>
+        <v>-0.192236842105263</v>
       </c>
       <c r="L3">
-        <v>-0.389430365849601</v>
+        <v>-0.468280913246975</v>
       </c>
       <c r="M3">
-        <v>-0.0250405880799493</v>
+        <v>-0.0147621943131253</v>
       </c>
       <c r="N3">
-        <v>-12.0412087912088</v>
+        <v>-17.4760765550239</v>
       </c>
       <c r="O3" t="s">
         <v>43</v>
@@ -773,19 +779,19 @@
         <v>5510064</v>
       </c>
       <c r="S3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -802,10 +808,10 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4">
-        <v>0.531311648813384</v>
+        <v>0.921991982001873</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -817,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.06</v>
+        <v>11.05</v>
       </c>
       <c r="K4">
-        <v>0.0049931647300067</v>
+        <v>0.100205761316872</v>
       </c>
       <c r="L4">
-        <v>-0.059567861264203</v>
+        <v>-0.0156439785007597</v>
       </c>
       <c r="M4">
-        <v>0.0715732776995615</v>
+        <v>0.143390750477159</v>
       </c>
       <c r="N4">
-        <v>0.0451461548825202</v>
+        <v>0.906839468930969</v>
       </c>
       <c r="O4" t="s">
         <v>43</v>
@@ -844,19 +850,19 @@
         <v>5510064</v>
       </c>
       <c r="S4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -873,34 +879,34 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5">
-        <v>0.0504714386201194</v>
+        <v>0.0867427341607392</v>
       </c>
       <c r="G5">
-        <v>0.145454545454545</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.309090909090909</v>
+        <v>0.381818181818182</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="K5">
-        <v>0.000664695177434</v>
+        <v>0.001003434065934</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.001201110092843</v>
+        <v>0.0013188558387846</v>
       </c>
       <c r="N5">
-        <v>6.04268343121846</v>
+        <v>10.0343406593406</v>
       </c>
       <c r="O5" t="s">
         <v>43</v>
@@ -915,19 +921,19 @@
         <v>5510064</v>
       </c>
       <c r="S5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -944,40 +950,40 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6">
-        <v>0.350157879828744</v>
+        <v>0.955543618424492</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.8545454545454541</v>
+        <v>0.925925925925926</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="K6">
-        <v>6.84309133489461</v>
+        <v>-30.9317574511819</v>
       </c>
       <c r="L6">
-        <v>-22.8519570776401</v>
+        <v>-81.7772722390615</v>
       </c>
       <c r="M6">
-        <v>45.1259386218765</v>
+        <v>-1.72833579872335</v>
       </c>
       <c r="N6">
-        <v>3.11049606131573</v>
+        <v>-14.7294083100866</v>
       </c>
       <c r="O6" t="s">
         <v>43</v>
       </c>
       <c r="P6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q6">
         <v>1848331</v>
@@ -986,19 +992,19 @@
         <v>5510064</v>
       </c>
       <c r="S6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1015,28 +1021,28 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7">
-        <v>0.404521041191137</v>
+        <v>0.733556600800821</v>
       </c>
       <c r="G7">
-        <v>0.5</v>
+        <v>0.528301886792453</v>
       </c>
       <c r="H7">
-        <v>0.611111111111111</v>
+        <v>0.471698113207547</v>
       </c>
       <c r="I7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0.0118221766699944</v>
+        <v>0.005</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>-0.0005168117096023</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1057,19 +1063,19 @@
         <v>5510064</v>
       </c>
       <c r="S7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1086,40 +1092,40 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F8">
-        <v>0.999956042364156</v>
+        <v>0.999998995256265</v>
       </c>
       <c r="G8">
-        <v>0.2</v>
+        <v>0.272727272727273</v>
       </c>
       <c r="H8">
-        <v>0.145454545454545</v>
+        <v>0.127272727272727</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="K8">
-        <v>-0.0007180537352555</v>
+        <v>-0.000692635903919</v>
       </c>
       <c r="L8">
-        <v>-0.0009986329460013</v>
+        <v>-0.0009487012987012</v>
       </c>
       <c r="M8">
-        <v>-0.0003895458902363</v>
+        <v>-0.0004529032246235</v>
       </c>
       <c r="N8">
-        <v>-17.9513433813893</v>
+        <v>-23.0878634639697</v>
       </c>
       <c r="O8" t="s">
         <v>43</v>
       </c>
       <c r="P8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q8">
         <v>1848331</v>
@@ -1128,19 +1134,19 @@
         <v>5510064</v>
       </c>
       <c r="S8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1154,43 +1160,43 @@
         <v>5</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F9">
-        <v>0.180148717141063</v>
+        <v>0.0353771901055718</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.927272727272727</v>
+        <v>0.8545454545454541</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.918</v>
+        <v>0.956</v>
       </c>
       <c r="K9">
-        <v>0.0124605543710021</v>
+        <v>0.0200686813186813</v>
       </c>
       <c r="L9">
-        <v>-0.0151946272896649</v>
+        <v>0.0062805595493569</v>
       </c>
       <c r="M9">
-        <v>0.0358867399184215</v>
+        <v>0.0374553810810694</v>
       </c>
       <c r="N9">
-        <v>1.35735886394359</v>
+        <v>2.09923444756081</v>
       </c>
       <c r="O9" t="s">
         <v>43</v>
       </c>
       <c r="P9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Q9">
         <v>1848331</v>
@@ -1199,19 +1205,19 @@
         <v>5510064</v>
       </c>
       <c r="S9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1228,34 +1234,34 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10">
-        <v>0.015774755330517</v>
+        <v>0.611682107304889</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.666666666666667</v>
+        <v>0.7037037037037041</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.32</v>
+        <v>8.345000000000001</v>
       </c>
       <c r="K10">
-        <v>-0.0465442655935613</v>
+        <v>0.0059197730956249</v>
       </c>
       <c r="L10">
-        <v>-0.076238079784476</v>
+        <v>-0.0313736910570657</v>
       </c>
       <c r="M10">
-        <v>-0.0141894545975324</v>
+        <v>0.0401373626373635</v>
       </c>
       <c r="N10">
-        <v>-0.55942626915338</v>
+        <v>0.07093796399790191</v>
       </c>
       <c r="O10" t="s">
         <v>43</v>
@@ -1270,16 +1276,16 @@
         <v>5510064</v>
       </c>
       <c r="S10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1296,40 +1302,40 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11">
-        <v>0.20187092466769</v>
+        <v>0.0053563882264306</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.9090909090909089</v>
+        <v>0.907407407407407</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.93</v>
+        <v>0.9675</v>
       </c>
       <c r="K11">
-        <v>0.0144075159914712</v>
+        <v>0.0350662442396314</v>
       </c>
       <c r="L11">
-        <v>-0.0157546810668403</v>
+        <v>0.0137137248855699</v>
       </c>
       <c r="M11">
-        <v>0.0364545528231652</v>
+        <v>0.0569931314007281</v>
       </c>
       <c r="N11">
-        <v>1.54919526790013</v>
+        <v>3.62441800926422</v>
       </c>
       <c r="O11" t="s">
         <v>43</v>
       </c>
       <c r="P11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q11">
         <v>1848331</v>
@@ -1338,19 +1344,19 @@
         <v>5510064</v>
       </c>
       <c r="S11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1367,40 +1373,40 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F12">
-        <v>0.0599644452620185</v>
+        <v>0.0057334065088992</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.6181818181818181</v>
+        <v>0.654545454545455</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K12">
-        <v>0.017201726844584</v>
+        <v>0.0266443768996961</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.009328151763266601</v>
       </c>
       <c r="M12">
-        <v>0.0398665787523754</v>
+        <v>0.0423693068624702</v>
       </c>
       <c r="N12">
-        <v>1.65401219659462</v>
+        <v>2.51362046223548</v>
       </c>
       <c r="O12" t="s">
         <v>43</v>
       </c>
       <c r="P12" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="Q12">
         <v>1848331</v>
@@ -1409,19 +1415,19 @@
         <v>5510064</v>
       </c>
       <c r="S12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1438,40 +1444,40 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13">
-        <v>0.0392436921744951</v>
+        <v>0.682902591335259</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.654545454545455</v>
+        <v>0.672727272727273</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.025</v>
+        <v>0.022</v>
       </c>
       <c r="K13">
-        <v>0.0019690026954177</v>
+        <v>-0.0005017170329669999</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>-0.0029669563641607</v>
       </c>
       <c r="M13">
-        <v>0.0039749925744286</v>
+        <v>0.0014834781820803</v>
       </c>
       <c r="N13">
-        <v>7.87601078167116</v>
+        <v>-2.28053196803196</v>
       </c>
       <c r="O13" t="s">
         <v>43</v>
       </c>
       <c r="P13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q13">
         <v>1848331</v>
@@ -1480,19 +1486,19 @@
         <v>5510064</v>
       </c>
       <c r="S13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1509,10 +1515,10 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14">
-        <v>0.265457993494366</v>
+        <v>0.68080686959086</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1524,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>3.29</v>
+        <v>2.98</v>
       </c>
       <c r="K14">
-        <v>0.228591836734694</v>
+        <v>-0.0572281105990784</v>
       </c>
       <c r="L14">
-        <v>-0.170586580112949</v>
+        <v>-0.541855465638493</v>
       </c>
       <c r="M14">
-        <v>0.7708963695902979</v>
+        <v>0.188145216376002</v>
       </c>
       <c r="N14">
-        <v>6.94808014391167</v>
+        <v>-1.92040639594223</v>
       </c>
       <c r="O14" t="s">
         <v>43</v>
       </c>
       <c r="P14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="Q14">
         <v>1848331</v>
@@ -1551,19 +1557,19 @@
         <v>5510064</v>
       </c>
       <c r="S14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1580,40 +1586,40 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F15">
-        <v>0.564627715532329</v>
+        <v>0.5</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.702380952380952</v>
+        <v>0.727272727272727</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K15">
-        <v>-1.73405137227841</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>-6.80861611502624</v>
+        <v>-7.51414543381449</v>
       </c>
       <c r="M15">
-        <v>3.35768947817519</v>
+        <v>5.2938889151271</v>
       </c>
       <c r="N15">
-        <v>-2.0400604379746</v>
+        <v>0</v>
       </c>
       <c r="O15" t="s">
         <v>43</v>
       </c>
       <c r="P15" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="Q15">
         <v>1848331</v>
@@ -1622,19 +1628,19 @@
         <v>5510064</v>
       </c>
       <c r="S15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1651,40 +1657,40 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F16">
-        <v>0.6609244946041321</v>
+        <v>0.541139572663993</v>
       </c>
       <c r="G16">
-        <v>0.087378640776699</v>
+        <v>0.09278350515463921</v>
       </c>
       <c r="H16">
-        <v>0.621359223300971</v>
+        <v>0.618556701030928</v>
       </c>
       <c r="I16">
         <v>4</v>
       </c>
       <c r="J16">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="K16">
-        <v>0.0174760765550239</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>-0.048148835788985</v>
+        <v>-0.0499675648517573</v>
       </c>
       <c r="M16">
-        <v>0.0868276326812167</v>
+        <v>0.0699712643678161</v>
       </c>
       <c r="N16">
-        <v>1.66438824333561</v>
+        <v>0</v>
       </c>
       <c r="O16" t="s">
         <v>43</v>
       </c>
       <c r="P16" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="Q16">
         <v>1848331</v>
@@ -1693,19 +1699,19 @@
         <v>5510064</v>
       </c>
       <c r="S16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1722,10 +1728,10 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F17">
-        <v>0.936943747769535</v>
+        <v>0.957416047058022</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1737,25 +1743,25 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.96</v>
+        <v>11.02</v>
       </c>
       <c r="K17">
-        <v>0.0308380214530689</v>
+        <v>0.0368466487279845</v>
       </c>
       <c r="L17">
-        <v>-0.0046765216497759</v>
+        <v>0.0025781229471671</v>
       </c>
       <c r="M17">
-        <v>0.0640763824945666</v>
+        <v>0.071491268482982</v>
       </c>
       <c r="N17">
-        <v>0.281368808878365</v>
+        <v>0.334361603702219</v>
       </c>
       <c r="O17" t="s">
         <v>43</v>
       </c>
       <c r="P17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q17">
         <v>1848331</v>
@@ -1764,19 +1770,19 @@
         <v>5510064</v>
       </c>
       <c r="S17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T17" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1793,22 +1799,22 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F18">
-        <v>0.107993347311056</v>
+        <v>0.241288994235755</v>
       </c>
       <c r="G18">
         <v>0.121739130434783</v>
       </c>
       <c r="H18">
-        <v>0.173913043478261</v>
+        <v>0.182608695652174</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1817,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0003835131352557</v>
+        <v>0.0002962208760867</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1826,7 +1832,7 @@
         <v>43</v>
       </c>
       <c r="P18" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="Q18">
         <v>1848331</v>
@@ -1835,19 +1841,19 @@
         <v>5510064</v>
       </c>
       <c r="S18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1864,16 +1870,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F19">
-        <v>0.0481219706840037</v>
+        <v>0.422327729445502</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.71304347826087</v>
+        <v>0.745614035087719</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1882,22 +1888,22 @@
         <v>200</v>
       </c>
       <c r="K19">
-        <v>9.276190476190481</v>
+        <v>0.386507936507936</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>-8.29126258089204</v>
       </c>
       <c r="M19">
-        <v>21.412777648062</v>
+        <v>10.2821945168359</v>
       </c>
       <c r="N19">
-        <v>4.63809523809524</v>
+        <v>0.193253968253968</v>
       </c>
       <c r="O19" t="s">
         <v>43</v>
       </c>
       <c r="P19" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="Q19">
         <v>1848331</v>
@@ -1906,19 +1912,19 @@
         <v>5510064</v>
       </c>
       <c r="S19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1938,37 +1944,37 @@
         <v>41</v>
       </c>
       <c r="F20">
-        <v>0.0782467780441556</v>
+        <v>0.431441170254833</v>
       </c>
       <c r="G20">
-        <v>0.636363636363636</v>
+        <v>0.621621621621622</v>
       </c>
       <c r="H20">
-        <v>0.545454545454545</v>
+        <v>0.558558558558559</v>
       </c>
       <c r="I20">
         <v>26</v>
       </c>
       <c r="J20">
-        <v>0.0100323058900115</v>
+        <v>0.0101377015448333</v>
       </c>
       <c r="K20">
-        <v>4.13994765524987E-05</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>-0.0003551564431984</v>
       </c>
       <c r="M20">
-        <v>0.0007515986310981</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0.412661625416719</v>
+        <v>0</v>
       </c>
       <c r="O20" t="s">
         <v>43</v>
       </c>
       <c r="P20" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="Q20">
         <v>1848331</v>
@@ -1977,19 +1983,19 @@
         <v>5510064</v>
       </c>
       <c r="S20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2006,16 +2012,16 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F21">
-        <v>0.999993279324079</v>
+        <v>0.999999990858338</v>
       </c>
       <c r="G21">
-        <v>0.173913043478261</v>
+        <v>0.226086956521739</v>
       </c>
       <c r="H21">
-        <v>0.147826086956522</v>
+        <v>0.139130434782609</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -2024,22 +2030,22 @@
         <v>0.004</v>
       </c>
       <c r="K21">
-        <v>-0.0003549562682215</v>
+        <v>-0.0004765166340508</v>
       </c>
       <c r="L21">
-        <v>-0.0004972230349388</v>
+        <v>-0.0006226329412152</v>
       </c>
       <c r="M21">
-        <v>-0.0002022156998791</v>
+        <v>-0.0003446558172279</v>
       </c>
       <c r="N21">
-        <v>-8.87390670553936</v>
+        <v>-11.912915851272</v>
       </c>
       <c r="O21" t="s">
         <v>43</v>
       </c>
       <c r="P21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q21">
         <v>1848331</v>
@@ -2048,19 +2054,19 @@
         <v>5510064</v>
       </c>
       <c r="S21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2077,40 +2083,40 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F22">
-        <v>0.0434988667065683</v>
+        <v>0.0018601860117882</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.869565217391304</v>
+        <v>0.808695652173913</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.881</v>
+        <v>0.898</v>
       </c>
       <c r="K22">
-        <v>0.0086552132701421</v>
+        <v>0.0134843499197432</v>
       </c>
       <c r="L22">
-        <v>0.0002138982824996</v>
+        <v>0.0058445669996483</v>
       </c>
       <c r="M22">
-        <v>0.0174476870788684</v>
+        <v>0.0214829959158467</v>
       </c>
       <c r="N22">
-        <v>0.982430564147808</v>
+        <v>1.50159798660837</v>
       </c>
       <c r="O22" t="s">
         <v>43</v>
       </c>
       <c r="P22" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="Q22">
         <v>1848331</v>
@@ -2119,19 +2125,19 @@
         <v>5510064</v>
       </c>
       <c r="S22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T22" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2148,40 +2154,40 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F23">
-        <v>0.0091500621184209</v>
+        <v>0.019918138747941</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.5625</v>
+        <v>0.56140350877193</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.369999999999999</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="K23">
-        <v>-0.016652338143738</v>
+        <v>-0.0137972184065936</v>
       </c>
       <c r="L23">
-        <v>-0.027921288845604</v>
+        <v>-0.0248602492786282</v>
       </c>
       <c r="M23">
-        <v>-0.0053530109468273</v>
+        <v>-0.0029433663671078</v>
       </c>
       <c r="N23">
-        <v>-0.19895266599448</v>
+        <v>-0.164644611057202</v>
       </c>
       <c r="O23" t="s">
         <v>43</v>
       </c>
       <c r="P23" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Q23">
         <v>1848331</v>
@@ -2190,16 +2196,16 @@
         <v>5510064</v>
       </c>
       <c r="S23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T23" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U23" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2216,40 +2222,40 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F24">
-        <v>0.0426153410950192</v>
+        <v>0.0040260311726772</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.852173913043478</v>
+        <v>0.842105263157895</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.89</v>
+        <v>0.9135</v>
       </c>
       <c r="K24">
-        <v>0.009566071428571399</v>
+        <v>0.0132550403225806</v>
       </c>
       <c r="L24">
-        <v>0.0001910712440055</v>
+        <v>0.0047775401984401</v>
       </c>
       <c r="M24">
-        <v>0.0180852576908171</v>
+        <v>0.0214364118237091</v>
       </c>
       <c r="N24">
-        <v>1.07483948635634</v>
+        <v>1.45101700301923</v>
       </c>
       <c r="O24" t="s">
         <v>43</v>
       </c>
       <c r="P24" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="Q24">
         <v>1848331</v>
@@ -2258,19 +2264,19 @@
         <v>5510064</v>
       </c>
       <c r="S24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T24" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U24" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2287,40 +2293,40 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F25">
-        <v>0.263817511896413</v>
+        <v>0.0239647977632157</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.521739130434783</v>
+        <v>0.452173913043478</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K25">
-        <v>0.0016439254786418</v>
+        <v>0.007648516045125</v>
       </c>
       <c r="L25">
-        <v>-0.0031371620985195</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.0099913655588444</v>
+        <v>0.0139942528735632</v>
       </c>
       <c r="N25">
-        <v>0.16116916457273</v>
+        <v>0.735434235108182</v>
       </c>
       <c r="O25" t="s">
         <v>43</v>
       </c>
       <c r="P25" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Q25">
         <v>1848331</v>
@@ -2329,19 +2335,19 @@
         <v>5510064</v>
       </c>
       <c r="S25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T25" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U25" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2358,40 +2364,40 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F26">
-        <v>0.0441384508990468</v>
+        <v>0.489029167388919</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0.443478260869565</v>
+        <v>0.434782608695652</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.023</v>
+        <v>0.022</v>
       </c>
       <c r="K26">
-        <v>0.0006668188041989</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>-0.0004918043396664</v>
       </c>
       <c r="M26">
-        <v>0.0015051510989011</v>
+        <v>0.0006512568720794</v>
       </c>
       <c r="N26">
-        <v>2.89921219216955</v>
+        <v>0</v>
       </c>
       <c r="O26" t="s">
         <v>43</v>
       </c>
       <c r="P26" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="Q26">
         <v>1848331</v>
@@ -2400,19 +2406,19 @@
         <v>5510064</v>
       </c>
       <c r="S26" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T26" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U26" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2429,40 +2435,40 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F27">
-        <v>0.09952520765366681</v>
+        <v>0.183603972115958</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.9304347826086961</v>
+        <v>0.9217391304347829</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>3.38</v>
+        <v>3.18</v>
       </c>
       <c r="K27">
-        <v>0.0970858720619968</v>
+        <v>0.072993026710132</v>
       </c>
       <c r="L27">
-        <v>-0.0163637385180724</v>
+        <v>-0.0361014879605892</v>
       </c>
       <c r="M27">
-        <v>0.267045219898528</v>
+        <v>0.178600185031486</v>
       </c>
       <c r="N27">
-        <v>2.8723630787573</v>
+        <v>2.29537819843182</v>
       </c>
       <c r="O27" t="s">
         <v>43</v>
       </c>
       <c r="P27" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="Q27">
         <v>1848331</v>
@@ -2471,19 +2477,19 @@
         <v>5510064</v>
       </c>
       <c r="S27" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T27" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U27" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W27" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2500,40 +2506,40 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F28">
-        <v>0.0448983552614924</v>
+        <v>0.109505485606638</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0.610294117647059</v>
+        <v>0.618320610687023</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>67.5</v>
+        <v>65</v>
       </c>
       <c r="K28">
-        <v>1.665273556231</v>
+        <v>1.17482404519822</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>-0.756492605139272</v>
       </c>
       <c r="M28">
-        <v>4.19314673410633</v>
+        <v>3.09473937268114</v>
       </c>
       <c r="N28">
-        <v>2.46707193515704</v>
+        <v>1.80742160799727</v>
       </c>
       <c r="O28" t="s">
         <v>43</v>
       </c>
       <c r="P28" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="Q28">
         <v>1848331</v>
@@ -2542,19 +2548,19 @@
         <v>5510064</v>
       </c>
       <c r="S28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T28" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U28" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V28" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W28" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2571,40 +2577,40 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F29">
-        <v>0.452910886940306</v>
+        <v>0.298237681961227</v>
       </c>
       <c r="G29">
-        <v>0.0625</v>
+        <v>0.0580645161290323</v>
       </c>
       <c r="H29">
-        <v>0.54375</v>
+        <v>0.561290322580645</v>
       </c>
       <c r="I29">
         <v>4</v>
       </c>
       <c r="J29">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="K29">
-        <v>-0.0011101823708206</v>
+        <v>-0.0073348088420318</v>
       </c>
       <c r="L29">
-        <v>-0.0300360409057686</v>
+        <v>-0.0311976918921161</v>
       </c>
       <c r="M29">
-        <v>0.0253679978675233</v>
+        <v>0.0194885327105077</v>
       </c>
       <c r="N29">
-        <v>-0.09912342596613111</v>
+        <v>-0.6729182423882381</v>
       </c>
       <c r="O29" t="s">
         <v>43</v>
       </c>
       <c r="P29" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="Q29">
         <v>1848331</v>
@@ -2613,19 +2619,19 @@
         <v>5510064</v>
       </c>
       <c r="S29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T29" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U29" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V29" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W29" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2642,40 +2648,40 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F30">
-        <v>0.427485792451708</v>
+        <v>0.893068435765106</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0.75</v>
+        <v>0.7528735632183911</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>10.91</v>
+        <v>10.96</v>
       </c>
       <c r="K30">
-        <v>-0.002851288056206</v>
+        <v>0.0199408553230211</v>
       </c>
       <c r="L30">
-        <v>-0.0253617366965323</v>
+        <v>-0.0062476840426902</v>
       </c>
       <c r="M30">
-        <v>0.02194857269706</v>
+        <v>0.0410221080880764</v>
       </c>
       <c r="N30">
-        <v>-0.0261346292961139</v>
+        <v>0.181942110611506</v>
       </c>
       <c r="O30" t="s">
         <v>43</v>
       </c>
       <c r="P30" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="Q30">
         <v>1848331</v>
@@ -2684,19 +2690,19 @@
         <v>5510064</v>
       </c>
       <c r="S30" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T30" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U30" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V30" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2713,16 +2719,16 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F31">
-        <v>0.0009679345453464</v>
+        <v>0.0010333510154534</v>
       </c>
       <c r="G31">
-        <v>0.144508670520231</v>
+        <v>0.148571428571429</v>
       </c>
       <c r="H31">
-        <v>0.115606936416185</v>
+        <v>0.12</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -2731,22 +2737,22 @@
         <v>0.01</v>
       </c>
       <c r="K31">
-        <v>0.0001991548527808</v>
+        <v>0.000181806869089</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0.0003334094020994</v>
+        <v>0.000332347588717</v>
       </c>
       <c r="N31">
-        <v>1.99154852780807</v>
+        <v>1.81806869089099</v>
       </c>
       <c r="O31" t="s">
         <v>43</v>
       </c>
       <c r="P31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q31">
         <v>1848331</v>
@@ -2755,19 +2761,19 @@
         <v>5510064</v>
       </c>
       <c r="S31" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T31" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U31" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V31" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2784,40 +2790,40 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F32">
-        <v>0.0212560970393066</v>
+        <v>0.123868460001487</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0.69364161849711</v>
+        <v>0.71264367816092</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="K32">
-        <v>6.00243849849502</v>
+        <v>3.18162020905923</v>
       </c>
       <c r="L32">
-        <v>0.896968415094538</v>
+        <v>-1.29734304130049</v>
       </c>
       <c r="M32">
-        <v>11.9492911668484</v>
+        <v>8.546100314328211</v>
       </c>
       <c r="N32">
-        <v>3.09404046314176</v>
+        <v>1.76756678281069</v>
       </c>
       <c r="O32" t="s">
         <v>43</v>
       </c>
       <c r="P32" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="Q32">
         <v>1848331</v>
@@ -2826,19 +2832,19 @@
         <v>5510064</v>
       </c>
       <c r="S32" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T32" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U32" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V32" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2855,28 +2861,28 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F33">
-        <v>0.905008668270237</v>
+        <v>0.961955021008466</v>
       </c>
       <c r="G33">
-        <v>0.542168674698795</v>
+        <v>0.55688622754491</v>
       </c>
       <c r="H33">
-        <v>0.560240963855422</v>
+        <v>0.5508982035928141</v>
       </c>
       <c r="I33">
         <v>27</v>
       </c>
       <c r="J33">
-        <v>0.0115178465537437</v>
+        <v>0.0112895830615398</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33">
-        <v>-0.0002445842422031</v>
+        <v>-0.0004419747443192</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -2888,7 +2894,7 @@
         <v>43</v>
       </c>
       <c r="P33" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="Q33">
         <v>1848331</v>
@@ -2897,19 +2903,19 @@
         <v>5510064</v>
       </c>
       <c r="S33" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T33" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U33" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V33" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2926,16 +2932,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F34">
-        <v>0.5526595453973761</v>
+        <v>0.949658100639631</v>
       </c>
       <c r="G34">
-        <v>0.303030303030303</v>
+        <v>0.308571428571429</v>
       </c>
       <c r="H34">
-        <v>0.109090909090909</v>
+        <v>0.102857142857143</v>
       </c>
       <c r="I34">
         <v>2</v>
@@ -2947,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>-0.0001284520068737</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -2959,7 +2965,7 @@
         <v>43</v>
       </c>
       <c r="P34" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="Q34">
         <v>1848331</v>
@@ -2968,19 +2974,19 @@
         <v>5510064</v>
       </c>
       <c r="S34" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T34" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U34" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V34" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W34" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2997,40 +3003,40 @@
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F35">
-        <v>0.11965950168628</v>
+        <v>0.0061246527620759</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.818181818181818</v>
+        <v>0.788571428571429</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.881</v>
+        <v>0.886</v>
       </c>
       <c r="K35">
-        <v>0.0032981540198429</v>
+        <v>0.0065759295499021</v>
       </c>
       <c r="L35">
-        <v>-0.0014487856797654</v>
+        <v>0.0022456851047202</v>
       </c>
       <c r="M35">
-        <v>0.008266337532998999</v>
+        <v>0.0108070532398911</v>
       </c>
       <c r="N35">
-        <v>0.37436481496515</v>
+        <v>0.742204238137941</v>
       </c>
       <c r="O35" t="s">
         <v>43</v>
       </c>
       <c r="P35" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q35">
         <v>1848331</v>
@@ -3039,19 +3045,19 @@
         <v>5510064</v>
       </c>
       <c r="S35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T35" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V35" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W35" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3068,40 +3074,40 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F36">
-        <v>0.014304158970458</v>
+        <v>0.0109274877363</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.475903614457831</v>
+        <v>0.461538461538462</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>8.369999999999999</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="K36">
-        <v>-0.0094870129870129</v>
+        <v>-0.0093176020408161</v>
       </c>
       <c r="L36">
-        <v>-0.016733716862368</v>
+        <v>-0.0161525494793129</v>
       </c>
       <c r="M36">
-        <v>-0.0023398462524025</v>
+        <v>-0.0025794136717514</v>
       </c>
       <c r="N36">
-        <v>-0.113345435926081</v>
+        <v>-0.111188568506159</v>
       </c>
       <c r="O36" t="s">
         <v>43</v>
       </c>
       <c r="P36" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Q36">
         <v>1848331</v>
@@ -3110,16 +3116,16 @@
         <v>5510064</v>
       </c>
       <c r="S36" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T36" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U36" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V36" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3136,40 +3142,40 @@
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F37">
-        <v>0.117653711567478</v>
+        <v>0.0116063114786423</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0.8497109826589599</v>
+        <v>0.85632183908046</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0.894</v>
+        <v>0.901</v>
       </c>
       <c r="K37">
-        <v>0.0032820547309833</v>
+        <v>0.0063147347740668</v>
       </c>
       <c r="L37">
-        <v>-0.0012192541751851</v>
+        <v>0.0018410109360881</v>
       </c>
       <c r="M37">
-        <v>0.0078395943493562</v>
+        <v>0.0108125581105387</v>
       </c>
       <c r="N37">
-        <v>0.367120215993658</v>
+        <v>0.70085846549021</v>
       </c>
       <c r="O37" t="s">
         <v>43</v>
       </c>
       <c r="P37" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Q37">
         <v>1848331</v>
@@ -3178,19 +3184,19 @@
         <v>5510064</v>
       </c>
       <c r="S37" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T37" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U37" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V37" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3207,40 +3213,40 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F38">
-        <v>0.732691823399817</v>
+        <v>0.417410655098202</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>0.508670520231214</v>
+        <v>0.497142857142857</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K38">
-        <v>-0.000907453416149</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>-0.0049687152630648</v>
+        <v>-0.0030558674388724</v>
       </c>
       <c r="M38">
-        <v>0.0019986831562419</v>
+        <v>0.0041877201378793</v>
       </c>
       <c r="N38">
-        <v>-0.088102273412531</v>
+        <v>0</v>
       </c>
       <c r="O38" t="s">
         <v>43</v>
       </c>
       <c r="P38" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Q38">
         <v>1848331</v>
@@ -3249,19 +3255,19 @@
         <v>5510064</v>
       </c>
       <c r="S38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T38" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U38" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V38" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W38" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3278,16 +3284,16 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F39">
-        <v>0.154757361802059</v>
+        <v>0.423146666173406</v>
       </c>
       <c r="G39">
-        <v>0.0057803468208092</v>
+        <v>0.0057142857142857</v>
       </c>
       <c r="H39">
-        <v>0.38150289017341</v>
+        <v>0.371428571428571</v>
       </c>
       <c r="I39">
         <v>1</v>
@@ -3296,22 +3302,22 @@
         <v>0.022</v>
       </c>
       <c r="K39">
-        <v>0.0002141391440297</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>-9.99070056007767E-05</v>
+        <v>-0.0002859099804305</v>
       </c>
       <c r="M39">
-        <v>0.0006536747710256</v>
+        <v>0.000334478021978</v>
       </c>
       <c r="N39">
-        <v>0.9733597455895679</v>
+        <v>0</v>
       </c>
       <c r="O39" t="s">
         <v>43</v>
       </c>
       <c r="P39" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q39">
         <v>1848331</v>
@@ -3320,19 +3326,19 @@
         <v>5510064</v>
       </c>
       <c r="S39" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T39" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U39" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V39" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W39" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3349,40 +3355,40 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F40">
-        <v>0.392878697555738</v>
+        <v>0.45859836675608</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>0.9306358381502891</v>
+        <v>0.92</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>3.2</v>
+        <v>3.09</v>
       </c>
       <c r="K40">
-        <v>0.0118174464907914</v>
+        <v>0.0033447802197804</v>
       </c>
       <c r="L40">
-        <v>-0.0408078692437191</v>
+        <v>-0.0389316626396839</v>
       </c>
       <c r="M40">
-        <v>0.0913527286852021</v>
+        <v>0.07479528311874729</v>
       </c>
       <c r="N40">
-        <v>0.369295202837232</v>
+        <v>0.108245314556001</v>
       </c>
       <c r="O40" t="s">
         <v>43</v>
       </c>
       <c r="P40" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="Q40">
         <v>1848331</v>
@@ -3391,19 +3397,19 @@
         <v>5510064</v>
       </c>
       <c r="S40" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T40" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U40" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V40" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W40" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3420,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F41">
         <v>0.59675202974633</v>
@@ -3435,25 +3441,25 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>0.42</v>
+        <v>0.446</v>
       </c>
       <c r="K41">
-        <v>0.0144543620275403</v>
+        <v>0.0115710331175565</v>
       </c>
       <c r="L41">
-        <v>-0.0546504762579461</v>
+        <v>-0.0670119972097603</v>
       </c>
       <c r="M41">
-        <v>0.0409418209197975</v>
+        <v>0.0526203565655916</v>
       </c>
       <c r="N41">
-        <v>3.44151476846198</v>
+        <v>2.59440204429518</v>
       </c>
       <c r="O41" t="s">
         <v>43</v>
       </c>
       <c r="P41" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="Q41">
         <v>1848331</v>
@@ -3462,16 +3468,16 @@
         <v>5510064</v>
       </c>
       <c r="S41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T41" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U41" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3488,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F42">
         <v>0.59675202974633</v>
@@ -3503,25 +3509,25 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K42">
-        <v>0.757995027672947</v>
+        <v>0.8617138603782</v>
       </c>
       <c r="L42">
-        <v>-9.139807490561459</v>
+        <v>-8.247649749082971</v>
       </c>
       <c r="M42">
         <v>6.20034569292086</v>
       </c>
       <c r="N42">
-        <v>0.689086388793588</v>
+        <v>0.790563174658899</v>
       </c>
       <c r="O42" t="s">
         <v>43</v>
       </c>
       <c r="P42" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="Q42">
         <v>1848331</v>
@@ -3530,16 +3536,16 @@
         <v>5510064</v>
       </c>
       <c r="S42" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T42" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U42" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V42" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3556,10 +3562,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F43">
-        <v>0.59675202974633</v>
+        <v>0.40324797025367</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -3574,22 +3580,22 @@
         <v>4.54</v>
       </c>
       <c r="K43">
-        <v>0.101692678392099</v>
+        <v>-0.0155333371469484</v>
       </c>
       <c r="L43">
-        <v>-0.303085318089481</v>
+        <v>-1.13891911082509</v>
       </c>
       <c r="M43">
         <v>0.711646458682974</v>
       </c>
       <c r="N43">
-        <v>2.23992683683037</v>
+        <v>-0.342143990020891</v>
       </c>
       <c r="O43" t="s">
         <v>43</v>
       </c>
       <c r="P43" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="Q43">
         <v>1848331</v>
@@ -3598,16 +3604,16 @@
         <v>5510064</v>
       </c>
       <c r="S43" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T43" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U43" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V43" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3624,16 +3630,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F44">
-        <v>0.07620314197837499</v>
+        <v>0.264799404212504</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -3642,22 +3648,22 @@
         <v>0.4505</v>
       </c>
       <c r="K44">
-        <v>-0.0136053008595989</v>
+        <v>-0.008291086561743301</v>
       </c>
       <c r="L44">
-        <v>-0.0212505926018626</v>
+        <v>-0.0212294839918377</v>
       </c>
       <c r="M44">
-        <v>0.0013641227083272</v>
+        <v>0.0074673916545866</v>
       </c>
       <c r="N44">
-        <v>-3.0200445859265</v>
+        <v>-1.84041877064225</v>
       </c>
       <c r="O44" t="s">
         <v>43</v>
       </c>
       <c r="P44" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="Q44">
         <v>1848331</v>
@@ -3666,16 +3672,16 @@
         <v>5510064</v>
       </c>
       <c r="S44" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T44" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U44" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V44" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3692,10 +3698,10 @@
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F45">
-        <v>0.429013828493761</v>
+        <v>0.639742606431872</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -3707,25 +3713,25 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>108.5</v>
+        <v>108</v>
       </c>
       <c r="K45">
-        <v>-0.467086992316136</v>
+        <v>0.58022239872915</v>
       </c>
       <c r="L45">
-        <v>-2.36382555787134</v>
+        <v>-1.81872132353426</v>
       </c>
       <c r="M45">
-        <v>1.63297408293561</v>
+        <v>1.67219452084716</v>
       </c>
       <c r="N45">
-        <v>-0.430494923793673</v>
+        <v>0.53724296178625</v>
       </c>
       <c r="O45" t="s">
         <v>43</v>
       </c>
       <c r="P45" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="Q45">
         <v>1848331</v>
@@ -3734,16 +3740,16 @@
         <v>5510064</v>
       </c>
       <c r="S45" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T45" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U45" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V45" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3760,10 +3766,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F46">
-        <v>0.570986171506239</v>
+        <v>0.762862824616335</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -3775,19 +3781,19 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>4.515</v>
+        <v>4.5135</v>
       </c>
       <c r="K46">
-        <v>0.0249829001367988</v>
+        <v>0.06469141829393631</v>
       </c>
       <c r="L46">
-        <v>-0.146648965728035</v>
+        <v>-0.11520320799976</v>
       </c>
       <c r="M46">
-        <v>0.179691758420334</v>
+        <v>0.192844239384256</v>
       </c>
       <c r="N46">
-        <v>0.5533311215237831</v>
+        <v>1.43328721156389</v>
       </c>
       <c r="O46" t="s">
         <v>43</v>
@@ -3802,16 +3808,16 @@
         <v>5510064</v>
       </c>
       <c r="S46" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T46" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U46" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V46" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3828,34 +3834,34 @@
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F47">
-        <v>0.024372460369853</v>
+        <v>0.041443466374964</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0.933333333333333</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>0.463</v>
+        <v>0.471</v>
       </c>
       <c r="K47">
-        <v>-0.0111604166666667</v>
+        <v>-0.008558580289455499</v>
       </c>
       <c r="L47">
-        <v>-0.0200677896192897</v>
+        <v>-0.0172021163657201</v>
       </c>
       <c r="M47">
-        <v>-0.0028489950403074</v>
+        <v>-0.0011497664641571</v>
       </c>
       <c r="N47">
-        <v>-2.41045716342693</v>
+        <v>-1.81710834171031</v>
       </c>
       <c r="O47" t="s">
         <v>43</v>
@@ -3870,16 +3876,16 @@
         <v>5510064</v>
       </c>
       <c r="S47" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T47" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U47" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V47" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3896,16 +3902,16 @@
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F48">
-        <v>0.421352280269595</v>
+        <v>0.259748045355119</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48">
-        <v>0.866666666666667</v>
+        <v>0.933333333333333</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -3914,22 +3920,22 @@
         <v>110</v>
       </c>
       <c r="K48">
-        <v>-0.162333333333333</v>
+        <v>-0.303028207964602</v>
       </c>
       <c r="L48">
-        <v>-1.00102026832746</v>
+        <v>-1.1180858476283</v>
       </c>
       <c r="M48">
-        <v>0.605447923182699</v>
+        <v>0.582095410179755</v>
       </c>
       <c r="N48">
-        <v>-0.147575757575758</v>
+        <v>-0.275480189058729</v>
       </c>
       <c r="O48" t="s">
         <v>43</v>
       </c>
       <c r="P48" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="Q48">
         <v>1848331</v>
@@ -3938,16 +3944,16 @@
         <v>5510064</v>
       </c>
       <c r="S48" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T48" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U48" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V48" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:22">
@@ -3964,10 +3970,10 @@
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F49">
-        <v>0.094443738769769</v>
+        <v>0.082928330171455</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -3979,19 +3985,19 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <v>4.6995</v>
+        <v>4.659</v>
       </c>
       <c r="K49">
-        <v>-0.0750389851485149</v>
+        <v>-0.0568166666666667</v>
       </c>
       <c r="L49">
-        <v>-0.18562352489274</v>
+        <v>-0.149743274406345</v>
       </c>
       <c r="M49">
-        <v>0.038151410257712</v>
+        <v>0.0205969461611793</v>
       </c>
       <c r="N49">
-        <v>-1.59674401848101</v>
+        <v>-1.21950346998641</v>
       </c>
       <c r="O49" t="s">
         <v>43</v>
@@ -4006,16 +4012,16 @@
         <v>5510064</v>
       </c>
       <c r="S49" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T49" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U49" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V49" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
